--- a/biology/Biologie cellulaire et moléculaire/LacA/LacA.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/LacA/LacA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gène lacA est l'un des trois gènes présents dans l'opéron lactose, qu'on retrouve dans de nombreuses bactéries comme Escherichia coli. Il s'agit d'une transacétylase. Son rôle n’est pas bien connu. Elle acétyle les β-galactosides non métabolisables[pas clair] qui peuvent alors être éliminés hors de la cellule par diffusion à travers la membrane plasmique[réf. nécessaire].
  Portail de la biologie cellulaire et moléculaire   Portail de la microbiologie                    </t>
